--- a/配置文档/建造相关/建造列表相关配置.xlsx
+++ b/配置文档/建造相关/建造列表相关配置.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20610" windowHeight="8775" activeTab="1"/>
+    <workbookView windowWidth="13545" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_MapBuildLable_建造列表标签" sheetId="3" r:id="rId1"/>
     <sheet name="cfg_MapBuildList_建造子列表" sheetId="4" r:id="rId2"/>
-    <sheet name="数据类型" sheetId="2" r:id="rId3"/>
+    <sheet name="cfg_BuildRule_建造规则" sheetId="5" r:id="rId3"/>
+    <sheet name="数据类型" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2">数据类型!#REF!</definedName>
-    <definedName name="数据类型_Sheet1" localSheetId="2">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="2">数据类型!$A$1:$D$37</definedName>
+    <definedName name="ExternalData_1" localSheetId="3">数据类型!#REF!</definedName>
+    <definedName name="数据类型_Sheet1" localSheetId="3">数据类型!#REF!</definedName>
+    <definedName name="连接" localSheetId="3">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -172,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="144">
   <si>
     <t>该表用于设置建造标签相关配置
 数据不想填就写 #BASEVALUE</t>
@@ -245,19 +246,115 @@
     <t>Id</t>
   </si>
   <si>
+    <t>建造规则ID</t>
+  </si>
+  <si>
+    <t>规则名称</t>
+  </si>
+  <si>
+    <t>检索标签</t>
+  </si>
+  <si>
+    <t>检索队伍，自身|中立|盟友非自身|盟友|敌人|任何。  own|neutral|allyNotOwn|ally|enemy|any</t>
+  </si>
+  <si>
+    <t>搜索距离（像素距离）</t>
+  </si>
+  <si>
+    <t>排除不完整建筑（就是没有建造完成的建筑）</t>
+  </si>
+  <si>
+    <t>最小数量</t>
+  </si>
+  <si>
+    <t>最大数量</t>
+  </si>
+  <si>
+    <t>禁止放置</t>
+  </si>
+  <si>
+    <t>失败信息</t>
+  </si>
+  <si>
+    <t>BuildingID</t>
+  </si>
+  <si>
+    <t>BuildingName</t>
+  </si>
+  <si>
+    <t>searchTags</t>
+  </si>
+  <si>
+    <t>searchTeam</t>
+  </si>
+  <si>
+    <t>searchDistance</t>
+  </si>
+  <si>
+    <t>excludeIncompleteBuildings</t>
+  </si>
+  <si>
+    <t>minCount</t>
+  </si>
+  <si>
+    <t>maxCount</t>
+  </si>
+  <si>
+    <t>blocksPlacement</t>
+  </si>
+  <si>
+    <t>cannotPlaceMessage</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>需要建造在资源地块上</t>
+  </si>
+  <si>
+    <t>资源地块</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>需要放置在液体地块中</t>
+  </si>
+  <si>
+    <t>液体地块</t>
+  </si>
+  <si>
+    <t>需要建造在城墙上</t>
+  </si>
+  <si>
+    <t>城墙</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>需要距离某标签建筑一段距离</t>
+  </si>
+  <si>
+    <t>某标签</t>
+  </si>
+  <si>
     <t>数据类型编号</t>
   </si>
   <si>
     <t>数据类型名称</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>数据类型描述</t>
   </si>
   <si>
     <t>数据类型示例</t>
   </si>
   <si>
-    <t>BOOL</t>
+    <t>True</t>
   </si>
   <si>
     <t>布尔值，用于表示 是或者否，True为是，False为否</t>
@@ -269,6 +366,9 @@
     <t>SHORT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -308,6 +408,9 @@
     <t>&lt;BOOL&gt;</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
   </si>
   <si>
@@ -359,6 +462,9 @@
     <t>(BOOL)</t>
   </si>
   <si>
+    <t>()</t>
+  </si>
+  <si>
     <t>(SHORT)</t>
   </si>
   <si>
@@ -395,6 +501,9 @@
     <t>LANG</t>
   </si>
   <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
@@ -404,6 +513,9 @@
     <t>POINT</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>保存小数二维坐标的类型</t>
   </si>
   <si>
@@ -428,6 +540,9 @@
     <t>(1.2,3.5)|(1.4,3.2)</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
@@ -452,21 +567,21 @@
     <t>RGB</t>
   </si>
   <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgb (x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
     <t>RGBA</t>
   </si>
   <si>
+    <t>(0,0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgba (x,x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0,0)</t>
-  </si>
-  <si>
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
@@ -486,6 +601,15 @@
   </si>
   <si>
     <t>BBCode是一种轻量标记语言，具体填写规则https://docs.godotengine.org/en/latest/tutorials/ui/bbcode_in_richtextlabel.html</t>
+  </si>
+  <si>
+    <t>HashSet&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -498,7 +622,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +633,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -992,137 +1124,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,22 +1267,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1159,16 +1300,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1237,12 +1378,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="连接" growShrinkType="overwriteClear" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="数据类型编号"/>
       <queryTableField id="2" name="数据类型名称"/>
-      <queryTableField id="3" name="数据类型描述"/>
-      <queryTableField id="4" name="数据类型示例"/>
+      <queryTableField id="3" name="默认值"/>
+      <queryTableField id="4" name="数据类型描述"/>
+      <queryTableField id="5" name="数据类型示例"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1500,8 +1642,8 @@
   <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1511,174 +1653,174 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="57" customHeight="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="13" customFormat="1" ht="57" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="14" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="14" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="14" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="50.25" spans="1:4">
-      <c r="A5" s="14">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="str">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="str">
         <f>_xlfn.DISPIMG("ID_59465D3B3717405FB20D241F7CFFC4C9",1)</f>
         <v>=DISPIMG("ID_59465D3B3717405FB20D241F7CFFC4C9",1)</v>
       </c>
     </row>
     <row r="6" ht="50.25" spans="1:4">
-      <c r="A6" s="14">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="A6" s="17">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="str">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="str">
         <f>_xlfn.DISPIMG("ID_5D4FD0E852C14E7D83AE943516AB0EB3",1)</f>
         <v>=DISPIMG("ID_5D4FD0E852C14E7D83AE943516AB0EB3",1)</v>
       </c>
     </row>
     <row r="7" ht="50.25" spans="1:4">
-      <c r="A7" s="14">
-        <v>1</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="A7" s="17">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17">
         <v>3</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15" t="str">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="str">
         <f>_xlfn.DISPIMG("ID_0639D8380C414212979CD3E7DC9D60F0",1)</f>
         <v>=DISPIMG("ID_0639D8380C414212979CD3E7DC9D60F0",1)</v>
       </c>
     </row>
     <row r="8" ht="50.25" spans="1:4">
-      <c r="A8" s="14">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17">
         <v>4</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="str">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18" t="str">
         <f>_xlfn.DISPIMG("ID_0A524891827A4B2C82BE392962C31AED",1)</f>
         <v>=DISPIMG("ID_0A524891827A4B2C82BE392962C31AED",1)</v>
       </c>
     </row>
     <row r="9" ht="59" customHeight="1" spans="1:4">
-      <c r="A9" s="14">
-        <v>1</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="A9" s="17">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17">
         <v>5</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15" t="str">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18" t="str">
         <f>_xlfn.DISPIMG("ID_C6FB81221F8045A583BD9F30371A94B5",1)</f>
         <v>=DISPIMG("ID_C6FB81221F8045A583BD9F30371A94B5",1)</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="16"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="16"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="16"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="16"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="16"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="16"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="16"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="16"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="16"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="16"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="16"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="16"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="16"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="16"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="16"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="16"/>
+      <c r="D25" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1696,7 +1838,7 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1711,88 +1853,88 @@
   </cols>
   <sheetData>
     <row r="1" ht="71" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="12">
         <v>2</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1810,62 +1952,373 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="3" max="3" width="24.9916666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="43.075" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="99.75" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="57" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:11">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:11">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>99</v>
+      </c>
+      <c r="J6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:11">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>99</v>
+      </c>
+      <c r="J7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:11">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>99</v>
+      </c>
+      <c r="J8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="129.375" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1873,288 +2326,364 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>77</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>93</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>95</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>96</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>101</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>102</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>112</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>118</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2162,102 +2691,139 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>120</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>123</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>126</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>135</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3">
+        <v>137</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>102</v>
+      <c r="B37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/建造相关/建造列表相关配置.xlsx
+++ b/配置文档/建造相关/建造列表相关配置.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12255"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_MapBuildLable_建造列表标签" sheetId="3" r:id="rId1"/>
-    <sheet name="cfg_MapBuildList_建造子列表" sheetId="4" r:id="rId2"/>
+    <sheet name="cfg_MapBuildItem_建造项数据" sheetId="4" r:id="rId2"/>
     <sheet name="cfg_BuildRule_建造规则" sheetId="5" r:id="rId3"/>
     <sheet name="数据类型" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -161,6 +161,81 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_216C9AC289C04598AEF6653A324D1F99" descr="建造子列表_武器_光子塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8566150" y="1593850"/>
+          <a:ext cx="608965" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_94C07D55217F41E2AEF254DC03BF1903" descr="建造列表_武器"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9891395" y="2176145"/>
+          <a:ext cx="762635" cy="748030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="ID_40AF941EE7F74302BCA0EE0DF67C8151" descr="机枪塔地基UI"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10024745" y="3472180"/>
+          <a:ext cx="762635" cy="748030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
@@ -173,7 +248,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
   <si>
     <t>该表用于设置建造标签相关配置
 数据不想填就写 #BASEVALUE</t>
@@ -215,35 +290,48 @@
     <t>PNG</t>
   </si>
   <si>
+    <t>开采</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>支援</t>
+  </si>
+  <si>
+    <t>科技</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
     <t>该表用于设置建造子列表相关配置
 数据不想填就写 #BASEVALUE</t>
   </si>
   <si>
-    <t>建造子列表id</t>
-  </si>
-  <si>
-    <t>建筑类型
-1 炮塔  建筑id是cfg_TowerData_炮塔基础
-2 建筑  建筑id是cfg_BuildData_建筑基础</t>
-  </si>
-  <si>
-    <t>建筑id</t>
-  </si>
-  <si>
-    <t>显示条件
-（暂不使用，科技树完善后）</t>
+    <t>建造项id</t>
+  </si>
+  <si>
+    <t>建造的实体id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">显示条件
+</t>
   </si>
   <si>
     <t>子列表图标</t>
   </si>
   <si>
-    <t>BuildListId</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Id</t>
+    <t>BuildItemId</t>
+  </si>
+  <si>
+    <t>ObjectId</t>
+  </si>
+  <si>
+    <t>ShowCondition</t>
+  </si>
+  <si>
+    <t>&lt;(INT)&gt;</t>
   </si>
   <si>
     <t>建造规则ID</t>
@@ -484,9 +572,6 @@
   </si>
   <si>
     <t>&lt;(SHORT)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(INT)&gt;</t>
   </si>
   <si>
     <t>&lt;(LONG)&gt;</t>
@@ -647,17 +732,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -819,6 +904,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -910,12 +1001,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,7 +1215,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1154,16 +1239,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1172,42 +1257,42 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,7 +1314,7 @@
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1254,14 +1339,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1276,22 +1358,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1300,19 +1391,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1642,8 +1730,8 @@
   <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1653,174 +1741,184 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="57" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="15" customFormat="1" ht="57" customHeight="1" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="16" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="14" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="16" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="14" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="16" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="50.25" spans="1:4">
-      <c r="A5" s="17">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18" t="str">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="19" t="str">
         <f>_xlfn.DISPIMG("ID_59465D3B3717405FB20D241F7CFFC4C9",1)</f>
         <v>=DISPIMG("ID_59465D3B3717405FB20D241F7CFFC4C9",1)</v>
       </c>
     </row>
     <row r="6" ht="50.25" spans="1:4">
-      <c r="A6" s="17">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18" t="str">
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="19" t="str">
         <f>_xlfn.DISPIMG("ID_5D4FD0E852C14E7D83AE943516AB0EB3",1)</f>
         <v>=DISPIMG("ID_5D4FD0E852C14E7D83AE943516AB0EB3",1)</v>
       </c>
     </row>
     <row r="7" ht="50.25" spans="1:4">
-      <c r="A7" s="17">
-        <v>1</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18" t="str">
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="19" t="str">
         <f>_xlfn.DISPIMG("ID_0639D8380C414212979CD3E7DC9D60F0",1)</f>
         <v>=DISPIMG("ID_0639D8380C414212979CD3E7DC9D60F0",1)</v>
       </c>
     </row>
     <row r="8" ht="50.25" spans="1:4">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18" t="str">
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="19" t="str">
         <f>_xlfn.DISPIMG("ID_0A524891827A4B2C82BE392962C31AED",1)</f>
         <v>=DISPIMG("ID_0A524891827A4B2C82BE392962C31AED",1)</v>
       </c>
     </row>
     <row r="9" ht="59" customHeight="1" spans="1:4">
-      <c r="A9" s="17">
-        <v>1</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="str">
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="19" t="str">
         <f>_xlfn.DISPIMG("ID_C6FB81221F8045A583BD9F30371A94B5",1)</f>
         <v>=DISPIMG("ID_C6FB81221F8045A583BD9F30371A94B5",1)</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="19"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="19"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="19"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="19"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="19"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="19"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="19"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="19"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="19"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="19"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="19"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="19"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="19"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="19"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="19"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="19"/>
+      <c r="D25" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1836,111 +1934,166 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="46.425" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="30.4416666666667" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="1" max="1" width="43.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.1333333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="30.4416666666667" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.9083333333333" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="71" customHeight="1" spans="1:7">
-      <c r="A1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>14</v>
+    <row r="1" ht="71" customHeight="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="13">
         <v>2</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12">
+      <c r="F2" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
-      <c r="A3" s="11" t="s">
+    <row r="3" ht="20" customHeight="1" spans="1:6">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12" t="s">
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="5" ht="51.05" spans="1:6">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2001</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>_xlfn.DISPIMG("ID_216C9AC289C04598AEF6653A324D1F99",1)</f>
+        <v>=DISPIMG("ID_216C9AC289C04598AEF6653A324D1F99",1)</v>
+      </c>
+    </row>
+    <row r="6" ht="61.15" spans="1:6">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2002</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f>_xlfn.DISPIMG("ID_94C07D55217F41E2AEF254DC03BF1903",1)</f>
+        <v>=DISPIMG("ID_94C07D55217F41E2AEF254DC03BF1903",1)</v>
+      </c>
+    </row>
+    <row r="7" ht="99.55" spans="1:6">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2003</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f>_xlfn.DISPIMG("ID_40AF941EE7F74302BCA0EE0DF67C8151",1)</f>
+        <v>=DISPIMG("ID_40AF941EE7F74302BCA0EE0DF67C8151",1)</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:G4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -1955,292 +2108,292 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="3" max="3" width="24.9916666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.9916666666667" style="3" customWidth="1"/>
     <col min="5" max="5" width="43.075" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="99.75" spans="1:11">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" ht="28.5" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="57" spans="1:11">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" ht="28.5" spans="1:11">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:11">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="5">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="G5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
         <v>5</v>
       </c>
-      <c r="J5" s="6" t="b">
+      <c r="J5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="b">
+      <c r="K5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:11">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="G6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
         <v>99</v>
       </c>
-      <c r="J6" s="6" t="b">
+      <c r="J6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="b">
+      <c r="K6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:11">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="5">
         <v>20</v>
       </c>
-      <c r="G7" s="6" t="b">
+      <c r="G7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
         <v>99</v>
       </c>
-      <c r="J7" s="6" t="b">
+      <c r="J7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="b">
+      <c r="K7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:11">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="C8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="5">
         <v>20</v>
       </c>
-      <c r="G8" s="6" t="b">
+      <c r="G8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
         <v>99</v>
       </c>
-      <c r="J8" s="6" t="b">
+      <c r="J8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="b">
+      <c r="K8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2263,25 +2416,25 @@
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="4" max="4" width="79.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2289,16 +2442,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2306,16 +2459,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2326,13 +2479,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2340,16 +2493,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2357,16 +2510,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2378,10 +2531,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2389,16 +2542,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2406,16 +2559,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2423,16 +2576,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2440,16 +2593,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2457,16 +2610,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2474,13 +2627,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2488,10 +2641,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2499,10 +2652,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2510,10 +2663,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2521,10 +2674,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2532,10 +2685,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2543,10 +2696,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2554,10 +2707,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2565,10 +2718,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2576,10 +2729,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2587,10 +2740,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2598,10 +2751,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2609,10 +2762,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2620,16 +2773,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2637,16 +2790,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2654,16 +2807,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2671,16 +2824,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2691,10 +2844,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2702,16 +2855,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2719,16 +2872,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2736,16 +2889,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2753,16 +2906,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2770,16 +2923,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2787,14 +2940,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2802,28 +2955,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>143</v>
+      <c r="B38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/建造相关/建造列表相关配置.xlsx
+++ b/配置文档/建造相关/建造列表相关配置.xlsx
@@ -39,7 +39,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="ID_59465D3B3717405FB20D241F7CFFC4C9" descr="建造列表_采集"/>
+        <xdr:cNvPr id="5" name="ID_11DB952DD681473FB4EE03EACB5972B0" descr="采集"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -52,8 +52,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="2305050"/>
-          <a:ext cx="609600" cy="609600"/>
+          <a:off x="7171055" y="1675130"/>
+          <a:ext cx="372745" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -64,7 +64,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="ID_5D4FD0E852C14E7D83AE943516AB0EB3" descr="建造列表_防御"/>
+        <xdr:cNvPr id="6" name="ID_EC401C8039E74F3C84707592782ADD42" descr="防御"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -77,8 +77,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5511800" y="4330700"/>
-          <a:ext cx="609600" cy="609600"/>
+          <a:off x="7058025" y="2595245"/>
+          <a:ext cx="370840" cy="132080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -89,7 +89,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="ID_0639D8380C414212979CD3E7DC9D60F0" descr="建造列表_辅助"/>
+        <xdr:cNvPr id="12" name="ID_2124E37D571A45A3B82A1CE67C386555" descr="辅助"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -102,8 +102,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6880225" y="3527425"/>
-          <a:ext cx="609600" cy="609600"/>
+          <a:off x="7158990" y="2651125"/>
+          <a:ext cx="373380" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -114,7 +114,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="ID_0A524891827A4B2C82BE392962C31AED" descr="建造列表_科技"/>
+        <xdr:cNvPr id="13" name="ID_4B26897A75EF45748134189E36944612" descr="武器"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -127,8 +127,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696075" y="4146550"/>
-          <a:ext cx="609600" cy="609600"/>
+          <a:off x="7296150" y="1850390"/>
+          <a:ext cx="373380" cy="132715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -139,7 +139,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="ID_C6FB81221F8045A583BD9F30371A94B5" descr="建造列表_武器"/>
+        <xdr:cNvPr id="15" name="ID_172B2CC31B11492395770D6F2C7D2C13" descr="次元凝练器"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -152,8 +152,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6864350" y="4775200"/>
-          <a:ext cx="609600" cy="609600"/>
+          <a:off x="10525125" y="2146935"/>
+          <a:ext cx="187325" cy="184785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -164,7 +164,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="ID_216C9AC289C04598AEF6653A324D1F99" descr="建造子列表_武器_光子塔"/>
+        <xdr:cNvPr id="7" name="ID_DC657BE3EF0F48C599F4E73846794D6C" descr="熔炉平台"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -177,8 +177,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8566150" y="1593850"/>
-          <a:ext cx="608965" cy="619760"/>
+          <a:off x="10523220" y="1979295"/>
+          <a:ext cx="187325" cy="184785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -189,7 +189,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="ID_94C07D55217F41E2AEF254DC03BF1903" descr="建造列表_武器"/>
+        <xdr:cNvPr id="10" name="ID_CB7DB99F213843098DC98B48E6549399" descr="收解台"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -202,8 +202,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9891395" y="2176145"/>
-          <a:ext cx="762635" cy="748030"/>
+          <a:off x="10505440" y="1763395"/>
+          <a:ext cx="187325" cy="184785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -214,7 +214,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="ID_40AF941EE7F74302BCA0EE0DF67C8151" descr="机枪塔地基UI"/>
+        <xdr:cNvPr id="8" name="ID_DD7A77264C354830AA2CAF9635F1ABB5" descr="挖掘钻机"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -227,8 +227,258 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10024745" y="3472180"/>
-          <a:ext cx="762635" cy="748030"/>
+          <a:off x="10529570" y="1576705"/>
+          <a:ext cx="187325" cy="184785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="ID_E4234769D65744BC868595C020686574" descr="水晶提取器"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10355580" y="2235835"/>
+          <a:ext cx="187325" cy="184785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="ID_58F4354A17C645B8B2A28EE1D9CE8D35" descr="布局节点"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10367645" y="4699000"/>
+          <a:ext cx="187325" cy="184785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="ID_B8624452D1D348159CEBE0DBB5AA3A01" descr="防御墙"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10402570" y="4159885"/>
+          <a:ext cx="187325" cy="184785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="ID_9A93E3C46F41412AB0D4E893DC8D978B" descr="治疗塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10394950" y="4368165"/>
+          <a:ext cx="187325" cy="184785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="ID_014164D4FD4B43B18212B117593F2ABB" descr="导弹无人机塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10424160" y="3627755"/>
+          <a:ext cx="187325" cy="184785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="ID_2891628B4ED24A70861239584F7E6D34" descr="喷火塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10415270" y="3441065"/>
+          <a:ext cx="187325" cy="184785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="ID_F0E8B596D0DB49BF91B9CD2BA30D2066" descr="射空塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10405745" y="3277870"/>
+          <a:ext cx="187325" cy="184785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="ID_44F8007616934A468E84143AC6102B1E" descr="射击塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401935" y="2733040"/>
+          <a:ext cx="187325" cy="184785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="ID_DA0804D428C54A17841CD70B09B83BF4" descr="迫击炮塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10403840" y="3112770"/>
+          <a:ext cx="187325" cy="184785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="ID_5052504BEF804D2A92F31853AF402A65" descr="光子塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10389235" y="2918460"/>
+          <a:ext cx="187325" cy="184785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -248,7 +498,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="147">
   <si>
     <t>该表用于设置建造标签相关配置
 数据不想填就写 #BASEVALUE</t>
@@ -290,19 +540,16 @@
     <t>PNG</t>
   </si>
   <si>
-    <t>开采</t>
+    <t>采集</t>
+  </si>
+  <si>
+    <t>武器</t>
   </si>
   <si>
     <t>防御</t>
   </si>
   <si>
-    <t>支援</t>
-  </si>
-  <si>
-    <t>科技</t>
-  </si>
-  <si>
-    <t>武器</t>
+    <t>辅助</t>
   </si>
   <si>
     <t>该表用于设置建造子列表相关配置
@@ -315,7 +562,7 @@
     <t>建造的实体id</t>
   </si>
   <si>
-    <t xml:space="preserve">显示条件
+    <t xml:space="preserve">是否需要科技解锁
 </t>
   </si>
   <si>
@@ -328,250 +575,250 @@
     <t>ObjectId</t>
   </si>
   <si>
-    <t>ShowCondition</t>
+    <t>IsNeedScience</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>建造规则ID</t>
+  </si>
+  <si>
+    <t>规则名称</t>
+  </si>
+  <si>
+    <t>检索标签</t>
+  </si>
+  <si>
+    <t>检索队伍，自身|中立|盟友非自身|盟友|敌人|任何。  own|neutral|allyNotOwn|ally|enemy|any</t>
+  </si>
+  <si>
+    <t>搜索距离（像素距离）</t>
+  </si>
+  <si>
+    <t>排除不完整建筑（就是没有建造完成的建筑）</t>
+  </si>
+  <si>
+    <t>最小数量</t>
+  </si>
+  <si>
+    <t>最大数量</t>
+  </si>
+  <si>
+    <t>禁止放置</t>
+  </si>
+  <si>
+    <t>失败信息</t>
+  </si>
+  <si>
+    <t>BuildingID</t>
+  </si>
+  <si>
+    <t>BuildingName</t>
+  </si>
+  <si>
+    <t>searchTags</t>
+  </si>
+  <si>
+    <t>searchTeam</t>
+  </si>
+  <si>
+    <t>searchDistance</t>
+  </si>
+  <si>
+    <t>excludeIncompleteBuildings</t>
+  </si>
+  <si>
+    <t>minCount</t>
+  </si>
+  <si>
+    <t>maxCount</t>
+  </si>
+  <si>
+    <t>blocksPlacement</t>
+  </si>
+  <si>
+    <t>cannotPlaceMessage</t>
+  </si>
+  <si>
+    <t>需要建造在资源地块上</t>
+  </si>
+  <si>
+    <t>资源地块</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>需要放置在液体地块中</t>
+  </si>
+  <si>
+    <t>液体地块</t>
+  </si>
+  <si>
+    <t>需要建造在城墙上</t>
+  </si>
+  <si>
+    <t>城墙</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>需要距离某标签建筑一段距离</t>
+  </si>
+  <si>
+    <t>某标签</t>
+  </si>
+  <si>
+    <t>数据类型编号</t>
+  </si>
+  <si>
+    <t>数据类型名称</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>数据类型描述</t>
+  </si>
+  <si>
+    <t>数据类型示例</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>布尔值，用于表示 是或者否，True为是，False为否</t>
+  </si>
+  <si>
+    <t>True       False</t>
+  </si>
+  <si>
+    <t>SHORT</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
+  </si>
+  <si>
+    <t>11112      -21232</t>
+  </si>
+  <si>
+    <t>整数类型，适合在大多数时候用于保存配置id，-2147483648到2147483647</t>
+  </si>
+  <si>
+    <t>1212312321</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>长整数类型，用于保存大的整数，-9223372036854775808到9223372036854775807</t>
+  </si>
+  <si>
+    <t>52122122111111</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>单精度浮点型，整数部分范围很大，小数部分，float的精度为6~7位有效数字，绝对能保证6位小数正常</t>
+  </si>
+  <si>
+    <t>554.1233  622125.1231</t>
+  </si>
+  <si>
+    <t>字符串，用于保存如介绍，描述等文本，通常不必担心长度</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>&lt;BOOL&gt;</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
+  </si>
+  <si>
+    <t>True|True|False</t>
+  </si>
+  <si>
+    <t>&lt;SHORT&gt;</t>
+  </si>
+  <si>
+    <t>短整数列表，用于保存一个由短整数组成的列表</t>
+  </si>
+  <si>
+    <t>123|121|434|-121</t>
+  </si>
+  <si>
+    <t>&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>整数列表，用于保存一个由整数组成的列表</t>
+  </si>
+  <si>
+    <t>2323232|1212|2343|545</t>
+  </si>
+  <si>
+    <t>&lt;LONG&gt;</t>
+  </si>
+  <si>
+    <t>长整数列表，用于保存一个由长整数组成的列表</t>
+  </si>
+  <si>
+    <t>52122122111111|1223434433</t>
+  </si>
+  <si>
+    <t>&lt;FLOAT&gt;</t>
+  </si>
+  <si>
+    <t>小数列表，用于保存一个由小数组成的列表</t>
+  </si>
+  <si>
+    <t>554.1233|12.12</t>
+  </si>
+  <si>
+    <t>&lt;STR&gt;</t>
+  </si>
+  <si>
+    <t>字符串列表</t>
+  </si>
+  <si>
+    <t>(BOOL)</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>(SHORT)</t>
+  </si>
+  <si>
+    <t>(INT)</t>
+  </si>
+  <si>
+    <t>(LONG)</t>
+  </si>
+  <si>
+    <t>(FLOAT)</t>
+  </si>
+  <si>
+    <t>(STR)</t>
+  </si>
+  <si>
+    <t>&lt;(BOOL)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;(SHORT)&gt;</t>
   </si>
   <si>
     <t>&lt;(INT)&gt;</t>
-  </si>
-  <si>
-    <t>建造规则ID</t>
-  </si>
-  <si>
-    <t>规则名称</t>
-  </si>
-  <si>
-    <t>检索标签</t>
-  </si>
-  <si>
-    <t>检索队伍，自身|中立|盟友非自身|盟友|敌人|任何。  own|neutral|allyNotOwn|ally|enemy|any</t>
-  </si>
-  <si>
-    <t>搜索距离（像素距离）</t>
-  </si>
-  <si>
-    <t>排除不完整建筑（就是没有建造完成的建筑）</t>
-  </si>
-  <si>
-    <t>最小数量</t>
-  </si>
-  <si>
-    <t>最大数量</t>
-  </si>
-  <si>
-    <t>禁止放置</t>
-  </si>
-  <si>
-    <t>失败信息</t>
-  </si>
-  <si>
-    <t>BuildingID</t>
-  </si>
-  <si>
-    <t>BuildingName</t>
-  </si>
-  <si>
-    <t>searchTags</t>
-  </si>
-  <si>
-    <t>searchTeam</t>
-  </si>
-  <si>
-    <t>searchDistance</t>
-  </si>
-  <si>
-    <t>excludeIncompleteBuildings</t>
-  </si>
-  <si>
-    <t>minCount</t>
-  </si>
-  <si>
-    <t>maxCount</t>
-  </si>
-  <si>
-    <t>blocksPlacement</t>
-  </si>
-  <si>
-    <t>cannotPlaceMessage</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>需要建造在资源地块上</t>
-  </si>
-  <si>
-    <t>资源地块</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>需要放置在液体地块中</t>
-  </si>
-  <si>
-    <t>液体地块</t>
-  </si>
-  <si>
-    <t>需要建造在城墙上</t>
-  </si>
-  <si>
-    <t>城墙</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>需要距离某标签建筑一段距离</t>
-  </si>
-  <si>
-    <t>某标签</t>
-  </si>
-  <si>
-    <t>数据类型编号</t>
-  </si>
-  <si>
-    <t>数据类型名称</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>数据类型描述</t>
-  </si>
-  <si>
-    <t>数据类型示例</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>布尔值，用于表示 是或者否，True为是，False为否</t>
-  </si>
-  <si>
-    <t>True       False</t>
-  </si>
-  <si>
-    <t>SHORT</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
-  </si>
-  <si>
-    <t>11112      -21232</t>
-  </si>
-  <si>
-    <t>整数类型，适合在大多数时候用于保存配置id，-2147483648到2147483647</t>
-  </si>
-  <si>
-    <t>1212312321</t>
-  </si>
-  <si>
-    <t>LONG</t>
-  </si>
-  <si>
-    <t>长整数类型，用于保存大的整数，-9223372036854775808到9223372036854775807</t>
-  </si>
-  <si>
-    <t>52122122111111</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>单精度浮点型，整数部分范围很大，小数部分，float的精度为6~7位有效数字，绝对能保证6位小数正常</t>
-  </si>
-  <si>
-    <t>554.1233  622125.1231</t>
-  </si>
-  <si>
-    <t>字符串，用于保存如介绍，描述等文本，通常不必担心长度</t>
-  </si>
-  <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>&lt;BOOL&gt;</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
-  </si>
-  <si>
-    <t>True|True|False</t>
-  </si>
-  <si>
-    <t>&lt;SHORT&gt;</t>
-  </si>
-  <si>
-    <t>短整数列表，用于保存一个由短整数组成的列表</t>
-  </si>
-  <si>
-    <t>123|121|434|-121</t>
-  </si>
-  <si>
-    <t>&lt;INT&gt;</t>
-  </si>
-  <si>
-    <t>整数列表，用于保存一个由整数组成的列表</t>
-  </si>
-  <si>
-    <t>2323232|1212|2343|545</t>
-  </si>
-  <si>
-    <t>&lt;LONG&gt;</t>
-  </si>
-  <si>
-    <t>长整数列表，用于保存一个由长整数组成的列表</t>
-  </si>
-  <si>
-    <t>52122122111111|1223434433</t>
-  </si>
-  <si>
-    <t>&lt;FLOAT&gt;</t>
-  </si>
-  <si>
-    <t>小数列表，用于保存一个由小数组成的列表</t>
-  </si>
-  <si>
-    <t>554.1233|12.12</t>
-  </si>
-  <si>
-    <t>&lt;STR&gt;</t>
-  </si>
-  <si>
-    <t>字符串列表</t>
-  </si>
-  <si>
-    <t>(BOOL)</t>
-  </si>
-  <si>
-    <t>()</t>
-  </si>
-  <si>
-    <t>(SHORT)</t>
-  </si>
-  <si>
-    <t>(INT)</t>
-  </si>
-  <si>
-    <t>(LONG)</t>
-  </si>
-  <si>
-    <t>(FLOAT)</t>
-  </si>
-  <si>
-    <t>(STR)</t>
-  </si>
-  <si>
-    <t>&lt;(BOOL)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(SHORT)&gt;</t>
   </si>
   <si>
     <t>&lt;(LONG)&gt;</t>
@@ -1083,12 +1330,57 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1215,7 +1507,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,34 +1519,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1339,7 +1631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1373,7 +1665,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,7 +1674,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1399,9 +1700,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1728,10 +2026,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1741,7 +2039,7 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="57" customHeight="1" spans="1:4">
+    <row r="1" s="18" customFormat="1" ht="57" customHeight="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +2053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="1" ht="14.25" spans="1:4">
+    <row r="2" s="19" customFormat="1" ht="14.25" spans="1:4">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
@@ -1765,11 +2063,11 @@
       <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="16" customFormat="1" ht="14.25" spans="1:4">
+    <row r="3" s="19" customFormat="1" ht="14.25" spans="1:4">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -1779,11 +2077,11 @@
       <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="16" customFormat="1" ht="14.25" spans="1:4">
+    <row r="4" s="19" customFormat="1" ht="14.25" spans="1:4">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1793,11 +2091,11 @@
       <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="50.25" spans="1:4">
+    <row r="5" ht="14.25" spans="1:4">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1807,12 +2105,12 @@
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="19" t="str">
-        <f>_xlfn.DISPIMG("ID_59465D3B3717405FB20D241F7CFFC4C9",1)</f>
-        <v>=DISPIMG("ID_59465D3B3717405FB20D241F7CFFC4C9",1)</v>
-      </c>
-    </row>
-    <row r="6" ht="50.25" spans="1:4">
+      <c r="D5" s="22" t="str">
+        <f>_xlfn.DISPIMG("ID_11DB952DD681473FB4EE03EACB5972B0",1)</f>
+        <v>=DISPIMG("ID_11DB952DD681473FB4EE03EACB5972B0",1)</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1822,12 +2120,12 @@
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19" t="str">
-        <f>_xlfn.DISPIMG("ID_5D4FD0E852C14E7D83AE943516AB0EB3",1)</f>
-        <v>=DISPIMG("ID_5D4FD0E852C14E7D83AE943516AB0EB3",1)</v>
-      </c>
-    </row>
-    <row r="7" ht="50.25" spans="1:4">
+      <c r="D6" s="22" t="str">
+        <f>_xlfn.DISPIMG("ID_4B26897A75EF45748134189E36944612",1)</f>
+        <v>=DISPIMG("ID_4B26897A75EF45748134189E36944612",1)</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1837,12 +2135,12 @@
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19" t="str">
-        <f>_xlfn.DISPIMG("ID_0639D8380C414212979CD3E7DC9D60F0",1)</f>
-        <v>=DISPIMG("ID_0639D8380C414212979CD3E7DC9D60F0",1)</v>
-      </c>
-    </row>
-    <row r="8" ht="50.25" spans="1:4">
+      <c r="D7" s="22" t="str">
+        <f>_xlfn.DISPIMG("ID_EC401C8039E74F3C84707592782ADD42",1)</f>
+        <v>=DISPIMG("ID_EC401C8039E74F3C84707592782ADD42",1)</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1852,74 +2150,12 @@
       <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="19" t="str">
-        <f>_xlfn.DISPIMG("ID_0A524891827A4B2C82BE392962C31AED",1)</f>
-        <v>=DISPIMG("ID_0A524891827A4B2C82BE392962C31AED",1)</v>
-      </c>
-    </row>
-    <row r="9" ht="59" customHeight="1" spans="1:4">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="19" t="str">
-        <f>_xlfn.DISPIMG("ID_C6FB81221F8045A583BD9F30371A94B5",1)</f>
-        <v>=DISPIMG("ID_C6FB81221F8045A583BD9F30371A94B5",1)</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="4:4">
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="20"/>
-    </row>
+      <c r="D8" s="22" t="str">
+        <f>_xlfn.DISPIMG("ID_2124E37D571A45A3B82A1CE67C386555",1)</f>
+        <v>=DISPIMG("ID_2124E37D571A45A3B82A1CE67C386555",1)</v>
+      </c>
+    </row>
+    <row r="9" ht="59" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4">
@@ -1927,6 +2163,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1934,41 +2171,41 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="43.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.8166666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.8166666666667" customWidth="1"/>
     <col min="4" max="4" width="15.1333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="30.4416666666667" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.9083333333333" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="7" max="16383" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="71" customHeight="1" spans="1:6">
       <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1979,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="13">
         <v>2</v>
@@ -1987,7 +2224,7 @@
       <c r="E2" s="13">
         <v>2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="14">
         <v>3</v>
       </c>
     </row>
@@ -1996,18 +2233,18 @@
         <v>5</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2019,77 +2256,419 @@
         <v>10</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="51.05" spans="1:6">
+    <row r="5" ht="16.8" spans="1:6">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>2001</v>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f>_xlfn.DISPIMG("ID_216C9AC289C04598AEF6653A324D1F99",1)</f>
-        <v>=DISPIMG("ID_216C9AC289C04598AEF6653A324D1F99",1)</v>
-      </c>
-    </row>
-    <row r="6" ht="61.15" spans="1:6">
+        <v>101</v>
+      </c>
+      <c r="E5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_DD7A77264C354830AA2CAF9635F1ABB5",1)</f>
+        <v>=DISPIMG("ID_DD7A77264C354830AA2CAF9635F1ABB5",1)</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" spans="1:6">
       <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>201</v>
+      </c>
+      <c r="E6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_CB7DB99F213843098DC98B48E6549399",1)</f>
+        <v>=DISPIMG("ID_CB7DB99F213843098DC98B48E6549399",1)</v>
+      </c>
+    </row>
+    <row r="7" ht="16.8" spans="1:6">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>301</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>301</v>
+      </c>
+      <c r="E7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_DC657BE3EF0F48C599F4E73846794D6C",1)</f>
+        <v>=DISPIMG("ID_DC657BE3EF0F48C599F4E73846794D6C",1)</v>
+      </c>
+    </row>
+    <row r="8" ht="23" customHeight="1" spans="1:6">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>401</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>401</v>
+      </c>
+      <c r="E8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_E4234769D65744BC868595C020686574",1)</f>
+        <v>=DISPIMG("ID_E4234769D65744BC868595C020686574",1)</v>
+      </c>
+    </row>
+    <row r="9" ht="16.8" spans="1:6">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>501</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>501</v>
+      </c>
+      <c r="E9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_172B2CC31B11492395770D6F2C7D2C13",1)</f>
+        <v>=DISPIMG("ID_172B2CC31B11492395770D6F2C7D2C13",1)</v>
+      </c>
+    </row>
+    <row r="10" ht="16.8" spans="1:6">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>100001</v>
+      </c>
+      <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f>_xlfn.DISPIMG("ID_94C07D55217F41E2AEF254DC03BF1903",1)</f>
-        <v>=DISPIMG("ID_94C07D55217F41E2AEF254DC03BF1903",1)</v>
-      </c>
-    </row>
-    <row r="7" ht="99.55" spans="1:6">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="D10" s="6">
+        <v>100001</v>
+      </c>
+      <c r="E10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_44F8007616934A468E84143AC6102B1E",1)</f>
+        <v>=DISPIMG("ID_44F8007616934A468E84143AC6102B1E",1)</v>
+      </c>
+    </row>
+    <row r="11" ht="16.8" spans="1:6">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>100501</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>100501</v>
+      </c>
+      <c r="E11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_5052504BEF804D2A92F31853AF402A65",1)</f>
+        <v>=DISPIMG("ID_5052504BEF804D2A92F31853AF402A65",1)</v>
+      </c>
+    </row>
+    <row r="12" ht="16.8" spans="1:6">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6">
+        <v>100901</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>100901</v>
+      </c>
+      <c r="E12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_DA0804D428C54A17841CD70B09B83BF4",1)</f>
+        <v>=DISPIMG("ID_DA0804D428C54A17841CD70B09B83BF4",1)</v>
+      </c>
+    </row>
+    <row r="13" ht="16.8" spans="1:6">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6">
+        <v>101001</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>101001</v>
+      </c>
+      <c r="E13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_F0E8B596D0DB49BF91B9CD2BA30D2066",1)</f>
+        <v>=DISPIMG("ID_F0E8B596D0DB49BF91B9CD2BA30D2066",1)</v>
+      </c>
+    </row>
+    <row r="14" ht="16.8" spans="1:6">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
+        <v>101101</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>101101</v>
+      </c>
+      <c r="E14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_2891628B4ED24A70861239584F7E6D34",1)</f>
+        <v>=DISPIMG("ID_2891628B4ED24A70861239584F7E6D34",1)</v>
+      </c>
+    </row>
+    <row r="15" ht="16.8" spans="1:6">
+      <c r="A15" s="6">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6">
+        <v>101201</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>101201</v>
+      </c>
+      <c r="E15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_014164D4FD4B43B18212B117593F2ABB",1)</f>
+        <v>=DISPIMG("ID_014164D4FD4B43B18212B117593F2ABB",1)</v>
+      </c>
+    </row>
+    <row r="16" ht="16.8" spans="1:6">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>200001</v>
+      </c>
+      <c r="C16" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
-        <v>2003</v>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f>_xlfn.DISPIMG("ID_40AF941EE7F74302BCA0EE0DF67C8151",1)</f>
-        <v>=DISPIMG("ID_40AF941EE7F74302BCA0EE0DF67C8151",1)</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="6"/>
+      <c r="D16" s="6">
+        <v>200001</v>
+      </c>
+      <c r="E16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_B8624452D1D348159CEBE0DBB5AA3A01",1)</f>
+        <v>=DISPIMG("ID_B8624452D1D348159CEBE0DBB5AA3A01",1)</v>
+      </c>
+    </row>
+    <row r="17" ht="16.8" spans="1:6">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
+        <v>300001</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6">
+        <v>300001</v>
+      </c>
+      <c r="E17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_58F4354A17C645B8B2A28EE1D9CE8D35",1)</f>
+        <v>=DISPIMG("ID_58F4354A17C645B8B2A28EE1D9CE8D35",1)</v>
+      </c>
+    </row>
+    <row r="18" ht="16.8" spans="1:6">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6">
+        <v>300201</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6">
+        <v>300201</v>
+      </c>
+      <c r="E18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_9A93E3C46F41412AB0D4E893DC8D978B",1)</f>
+        <v>=DISPIMG("ID_9A93E3C46F41412AB0D4E893DC8D978B",1)</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" ht="15" spans="6:6">
+      <c r="F54" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2098,6 +2677,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2107,8 +2687,8 @@
   <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -2122,34 +2702,34 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:11">
@@ -2192,34 +2772,34 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:11">
@@ -2242,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>10</v>
@@ -2265,13 +2845,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="F5" s="5">
         <v>20</v>
@@ -2300,13 +2880,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="5">
         <v>20</v>
@@ -2335,13 +2915,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="F7" s="5">
         <v>20</v>
@@ -2370,13 +2950,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="5">
         <v>20</v>
@@ -2399,6 +2979,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2422,19 +3003,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2442,16 +3023,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2459,16 +3040,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2479,13 +3060,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2493,16 +3074,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2510,16 +3091,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2531,10 +3112,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2542,16 +3123,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2559,16 +3140,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2576,16 +3157,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2593,16 +3174,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2610,16 +3191,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2627,13 +3208,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2641,10 +3222,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2652,10 +3233,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2663,10 +3244,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2674,10 +3255,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2685,10 +3266,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2696,10 +3277,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2707,10 +3288,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2718,10 +3299,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2729,10 +3310,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2740,10 +3321,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2751,10 +3332,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2762,10 +3343,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2773,16 +3354,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2790,16 +3371,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2807,16 +3388,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2824,16 +3405,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2844,10 +3425,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2855,16 +3436,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2872,16 +3453,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2889,16 +3470,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2906,16 +3487,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2923,16 +3504,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2940,14 +3521,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2955,11 +3536,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2967,20 +3548,21 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/配置文档/建造相关/建造列表相关配置.xlsx
+++ b/配置文档/建造相关/建造列表相关配置.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -139,188 +139,13 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="ID_172B2CC31B11492395770D6F2C7D2C13" descr="次元凝练器"/>
+        <xdr:cNvPr id="17" name="ID_9A93E3C46F41412AB0D4E893DC8D978B" descr="治疗塔"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10525125" y="2146935"/>
-          <a:ext cx="187325" cy="184785"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="ID_DC657BE3EF0F48C599F4E73846794D6C" descr="熔炉平台"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10523220" y="1979295"/>
-          <a:ext cx="187325" cy="184785"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="ID_CB7DB99F213843098DC98B48E6549399" descr="收解台"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10505440" y="1763395"/>
-          <a:ext cx="187325" cy="184785"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="ID_DD7A77264C354830AA2CAF9635F1ABB5" descr="挖掘钻机"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10529570" y="1576705"/>
-          <a:ext cx="187325" cy="184785"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="ID_E4234769D65744BC868595C020686574" descr="水晶提取器"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10355580" y="2235835"/>
-          <a:ext cx="187325" cy="184785"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="ID_58F4354A17C645B8B2A28EE1D9CE8D35" descr="布局节点"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10367645" y="4699000"/>
-          <a:ext cx="187325" cy="184785"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="ID_B8624452D1D348159CEBE0DBB5AA3A01" descr="防御墙"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10402570" y="4159885"/>
-          <a:ext cx="187325" cy="184785"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="ID_9A93E3C46F41412AB0D4E893DC8D978B" descr="治疗塔"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -339,7 +164,182 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="ID_014164D4FD4B43B18212B117593F2ABB" descr="导弹无人机塔"/>
+        <xdr:cNvPr id="31" name="ID_4DD065F10B904CEEBE53037F0D8B234C" descr="挖掘钻机"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10723880" y="1670050"/>
+          <a:ext cx="226695" cy="233680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="ID_401B3EE15EFC42E2A51680A8A27FC56A" descr="水晶提取器"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658475" y="2357755"/>
+          <a:ext cx="226695" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="ID_D3CF77A34ED74C60A4D34D28401FAC99" descr="收解台"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10557510" y="1841500"/>
+          <a:ext cx="226695" cy="233680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="ID_BE62D6D9713E4A499F1FD96509C95087" descr="射空塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10843260" y="4758690"/>
+          <a:ext cx="229235" cy="233680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="ID_C8F0AFCF7F804860AFE706068B7163EB" descr="射击塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10765790" y="3893185"/>
+          <a:ext cx="226695" cy="233680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="ID_3409CEDB9E1E4609B71E380924FF3316" descr="熔炉平台"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10866755" y="2066925"/>
+          <a:ext cx="229235" cy="233680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="ID_299AF8C9EFC1444383821DEB1338C764" descr="布局节点"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10765790" y="6753860"/>
+          <a:ext cx="226695" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="ID_DC2A35A3F4D34A5288D083B243CFC007" descr="防御墙"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -352,8 +352,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10424160" y="3627755"/>
-          <a:ext cx="187325" cy="184785"/>
+          <a:off x="10884535" y="6479540"/>
+          <a:ext cx="229235" cy="229235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -364,7 +364,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="ID_2891628B4ED24A70861239584F7E6D34" descr="喷火塔"/>
+        <xdr:cNvPr id="41" name="ID_9F3D06959AED4D66A6D39063334AB0CA" descr="光子塔"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -377,8 +377,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10415270" y="3441065"/>
-          <a:ext cx="187325" cy="184785"/>
+          <a:off x="10503535" y="4296410"/>
+          <a:ext cx="226695" cy="233680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -389,7 +389,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="ID_F0E8B596D0DB49BF91B9CD2BA30D2066" descr="射空塔"/>
+        <xdr:cNvPr id="44" name="ID_4C60F2B61952492F88D24C28FDA4086E" descr="治疗塔"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -402,8 +402,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10405745" y="3277870"/>
-          <a:ext cx="187325" cy="184785"/>
+          <a:off x="10718165" y="5302885"/>
+          <a:ext cx="228600" cy="231775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -414,7 +414,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="ID_44F8007616934A468E84143AC6102B1E" descr="射击塔"/>
+        <xdr:cNvPr id="19" name="ID_D2692EF3A7DF4D34B85C8129CBBD17A1" descr="阻马"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -427,8 +427,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10401935" y="2733040"/>
-          <a:ext cx="187325" cy="184785"/>
+          <a:off x="10889615" y="10495280"/>
+          <a:ext cx="224790" cy="226695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -439,7 +439,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="ID_DA0804D428C54A17841CD70B09B83BF4" descr="迫击炮塔"/>
+        <xdr:cNvPr id="18" name="ID_83C81FEEAF8243E081906A9205D7D5F6" descr="重组塔"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -452,8 +452,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10403840" y="3112770"/>
-          <a:ext cx="187325" cy="184785"/>
+          <a:off x="10229850" y="10336530"/>
+          <a:ext cx="226060" cy="226060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -464,7 +464,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="ID_5052504BEF804D2A92F31853AF402A65" descr="光子塔"/>
+        <xdr:cNvPr id="3" name="ID_891DB17444E4460F8ADE36249FCD7394" descr="镇压塔"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -477,8 +477,483 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10389235" y="2918460"/>
-          <a:ext cx="187325" cy="184785"/>
+          <a:off x="10567035" y="10170160"/>
+          <a:ext cx="226060" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="ID_B520E760974E42508AF90D8EC86B3524" descr="战术地刺"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10859770" y="9967595"/>
+          <a:ext cx="224790" cy="226060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="ID_B404A0E0A57B49BB870ED498C8D11B95" descr="瓦解塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9914890" y="9822815"/>
+          <a:ext cx="226060" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="ID_44D9B418C1C54BBCA547494EABBCE28D" descr="闪耀塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10508615" y="9612630"/>
+          <a:ext cx="226060" cy="226060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="ID_0EFBED2547A44F7E8365B09D7681E597" descr="闪电塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10970260" y="9446260"/>
+          <a:ext cx="224790" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="ID_82C739C91395468DA06FBF117861F13A" descr="散射塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10244455" y="9272905"/>
+          <a:ext cx="226060" cy="226060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="ID_6AB2AB516DE244D0878F5B322C51EDE8" descr="布雷器"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10508615" y="7802880"/>
+          <a:ext cx="226060" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="ID_34FBB8D69695424CB6AE853BC927D098" descr="地堡"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10259060" y="7998460"/>
+          <a:ext cx="226060" cy="226060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="ID_9AD385B82DA343FAAA9418C2D9F8DE69" descr="机枪塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10127615" y="8171815"/>
+          <a:ext cx="226060" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="ID_BDB308A3E72F427595AC1A9A75902D33" descr="加农炮塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772140" y="8331200"/>
+          <a:ext cx="226060" cy="226060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="ID_2B06411C3F664BF2B58BF091E079939F" descr="狙击塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10332720" y="8533765"/>
+          <a:ext cx="226060" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="ID_63712A02DDCC4249825D599FFD1FB841" descr="破闪塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10859770" y="8714740"/>
+          <a:ext cx="224790" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="ID_9C795C3DFD604D0BBE164CAF635BE94D" descr="热熔塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10178415" y="8859520"/>
+          <a:ext cx="226060" cy="226060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="ID_C65D6D99F84541ABA9BF3404D66C1487" descr="熔岩塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10838180" y="9047480"/>
+          <a:ext cx="226060" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="ID_80FC7EF21F1740B093A0240AFF3D6DEB" descr="迫击炮塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10434955" y="3732530"/>
+          <a:ext cx="226060" cy="230505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="ID_07DEC1450AFC4F3998D87D712D02686A" descr="次元凝练器"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10473690" y="2689225"/>
+          <a:ext cx="226695" cy="229870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="ID_771E175306A64643A328202688B1BBAB" descr="导弹无人机塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10405745" y="6515100"/>
+          <a:ext cx="225425" cy="231140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_E2AAFF612EAC432190986B26A9C98BB7" descr="喷火塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10434955" y="6010275"/>
+          <a:ext cx="229235" cy="235585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="ID_F059E6008EE14803AE8A553D53CC0F42" descr="黄蜂导弹塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10757535" y="9559290"/>
+          <a:ext cx="225425" cy="233045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="ID_7FD5958D36034C6D9CEB261A1016B1BF" descr="集数投射塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10262235" y="16094710"/>
+          <a:ext cx="229235" cy="222250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -498,7 +973,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="202">
   <si>
     <t>该表用于设置建造标签相关配置
 数据不想填就写 #BASEVALUE</t>
@@ -569,6 +1044,9 @@
     <t>子列表图标</t>
   </si>
   <si>
+    <t>建筑名称（仅在文档中显示）</t>
+  </si>
+  <si>
     <t>BuildItemId</t>
   </si>
   <si>
@@ -578,9 +1056,174 @@
     <t>IsNeedScience</t>
   </si>
   <si>
+    <t>mingzi</t>
+  </si>
+  <si>
     <t>BOOL</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>挖掘钻机1</t>
+  </si>
+  <si>
+    <t>挖掘钻机2</t>
+  </si>
+  <si>
+    <t>挖掘钻机3</t>
+  </si>
+  <si>
+    <t>收解台</t>
+  </si>
+  <si>
+    <t>水晶提取器</t>
+  </si>
+  <si>
+    <t>熔炉平台</t>
+  </si>
+  <si>
+    <t>次元凝练器</t>
+  </si>
+  <si>
+    <t>射击塔1</t>
+  </si>
+  <si>
+    <t>射击塔2</t>
+  </si>
+  <si>
+    <t>射击塔3</t>
+  </si>
+  <si>
+    <t>光子塔1</t>
+  </si>
+  <si>
+    <t>光子塔2</t>
+  </si>
+  <si>
+    <t>光子塔3</t>
+  </si>
+  <si>
+    <t>迫击炮塔1</t>
+  </si>
+  <si>
+    <t>迫击炮塔2</t>
+  </si>
+  <si>
+    <t>迫击炮塔3</t>
+  </si>
+  <si>
+    <t>散弹塔1</t>
+  </si>
+  <si>
+    <t>散弹塔2</t>
+  </si>
+  <si>
+    <t>散弹塔3</t>
+  </si>
+  <si>
+    <t>机枪塔1</t>
+  </si>
+  <si>
+    <t>机枪塔2</t>
+  </si>
+  <si>
+    <t>机枪塔3</t>
+  </si>
+  <si>
+    <t>破甲塔1</t>
+  </si>
+  <si>
+    <t>破甲塔2</t>
+  </si>
+  <si>
+    <t>破甲塔3</t>
+  </si>
+  <si>
+    <t>射空塔1</t>
+  </si>
+  <si>
+    <t>射空塔2</t>
+  </si>
+  <si>
+    <t>射空塔3</t>
+  </si>
+  <si>
+    <t>喷火塔1</t>
+  </si>
+  <si>
+    <t>喷火塔2</t>
+  </si>
+  <si>
+    <t>喷火塔3</t>
+  </si>
+  <si>
+    <t>闪电塔</t>
+  </si>
+  <si>
+    <t>镇压塔</t>
+  </si>
+  <si>
+    <t>分解塔</t>
+  </si>
+  <si>
+    <t>加农塔</t>
+  </si>
+  <si>
+    <t>热熔塔</t>
+  </si>
+  <si>
+    <t>导弹无人机塔</t>
+  </si>
+  <si>
+    <t>熔岩迫击炮塔</t>
+  </si>
+  <si>
+    <t>破闪塔</t>
+  </si>
+  <si>
+    <t>闪耀塔</t>
+  </si>
+  <si>
+    <t>黄蜂导弹塔</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>集数投射塔</t>
+  </si>
+  <si>
+    <t>防御墙</t>
+  </si>
+  <si>
+    <t>地堡</t>
+  </si>
+  <si>
+    <t>布雷塔</t>
+  </si>
+  <si>
+    <t>战术地刺</t>
+  </si>
+  <si>
+    <t>拒马</t>
+  </si>
+  <si>
+    <t>布局节点</t>
+  </si>
+  <si>
+    <t>重组塔</t>
+  </si>
+  <si>
+    <t>维修激光塔</t>
+  </si>
+  <si>
+    <t>核心1</t>
+  </si>
+  <si>
+    <t>核心2</t>
+  </si>
+  <si>
     <t>建造规则ID</t>
   </si>
   <si>
@@ -837,9 +1480,6 @@
   </si>
   <si>
     <t>语言id 是语言配置的id</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>POINT</t>
@@ -954,7 +1594,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,11 +1619,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1151,12 +1818,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1253,6 +1914,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1330,7 +1997,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1339,47 +2006,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FFDEE0E3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1501,137 +2138,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1653,38 +2290,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1692,13 +2338,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2029,7 +2690,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2039,118 +2700,118 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="57" customHeight="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+    <row r="1" s="21" customFormat="1" ht="57" customHeight="1" spans="1:4">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="22" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26">
         <v>2</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="22" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="19" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="22" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="29">
+        <v>1</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="22" t="str">
+      <c r="D5" s="30" t="str">
         <f>_xlfn.DISPIMG("ID_11DB952DD681473FB4EE03EACB5972B0",1)</f>
         <v>=DISPIMG("ID_11DB952DD681473FB4EE03EACB5972B0",1)</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="29">
+        <v>1</v>
+      </c>
+      <c r="B6" s="29">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="22" t="str">
+      <c r="D6" s="30" t="str">
         <f>_xlfn.DISPIMG("ID_4B26897A75EF45748134189E36944612",1)</f>
         <v>=DISPIMG("ID_4B26897A75EF45748134189E36944612",1)</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="29">
+        <v>1</v>
+      </c>
+      <c r="B7" s="29">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="22" t="str">
+      <c r="D7" s="30" t="str">
         <f>_xlfn.DISPIMG("ID_EC401C8039E74F3C84707592782ADD42",1)</f>
         <v>=DISPIMG("ID_EC401C8039E74F3C84707592782ADD42",1)</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="29">
+        <v>1</v>
+      </c>
+      <c r="B8" s="29">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="22" t="str">
+      <c r="D8" s="30" t="str">
         <f>_xlfn.DISPIMG("ID_2124E37D571A45A3B82A1CE67C386555",1)</f>
         <v>=DISPIMG("ID_2124E37D571A45A3B82A1CE67C386555",1)</v>
       </c>
@@ -2171,24 +2832,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="43.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.8166666666667" style="6" customWidth="1"/>
     <col min="4" max="4" width="15.1333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="30.4416666666667" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.9083333333333" style="7" customWidth="1"/>
-    <col min="7" max="16383" width="9" style="6"/>
+    <col min="7" max="7" width="15.1333333333333" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="71" customHeight="1" spans="1:6">
+    <row r="1" ht="71" customHeight="1" spans="1:7">
       <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
@@ -2204,71 +2866,83 @@
       <c r="E1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
+      <c r="G1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>2</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:6">
-      <c r="A3" s="12" t="s">
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="G3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" ht="16.8" spans="1:6">
+      <c r="G4" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:7">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -2281,404 +2955,1376 @@
       <c r="D5" s="6">
         <v>101</v>
       </c>
-      <c r="E5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_DD7A77264C354830AA2CAF9635F1ABB5",1)</f>
-        <v>=DISPIMG("ID_DD7A77264C354830AA2CAF9635F1ABB5",1)</v>
-      </c>
-    </row>
-    <row r="6" ht="16.8" spans="1:6">
+      <c r="E5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="str">
+        <f t="shared" ref="F5:F7" si="0">_xlfn.DISPIMG("ID_4DD065F10B904CEEBE53037F0D8B234C",1)</f>
+        <v>=DISPIMG("ID_4DD065F10B904CEEBE53037F0D8B234C",1)</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:7">
       <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="6">
+        <v>102</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>102</v>
+      </c>
+      <c r="E6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_4DD065F10B904CEEBE53037F0D8B234C",1)</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:7">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>103</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>103</v>
+      </c>
+      <c r="E7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_4DD065F10B904CEEBE53037F0D8B234C",1)</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="20.65" spans="1:7">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
         <v>201</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
         <v>201</v>
       </c>
-      <c r="E6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_CB7DB99F213843098DC98B48E6549399",1)</f>
-        <v>=DISPIMG("ID_CB7DB99F213843098DC98B48E6549399",1)</v>
-      </c>
-    </row>
-    <row r="7" ht="16.8" spans="1:6">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="E8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_D3CF77A34ED74C60A4D34D28401FAC99",1)</f>
+        <v>=DISPIMG("ID_D3CF77A34ED74C60A4D34D28401FAC99",1)</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="20.75" spans="1:7">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>401</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>401</v>
+      </c>
+      <c r="E9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_401B3EE15EFC42E2A51680A8A27FC56A",1)</f>
+        <v>=DISPIMG("ID_401B3EE15EFC42E2A51680A8A27FC56A",1)</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="20.65" spans="1:7">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
         <v>301</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
         <v>301</v>
       </c>
-      <c r="E7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_DC657BE3EF0F48C599F4E73846794D6C",1)</f>
-        <v>=DISPIMG("ID_DC657BE3EF0F48C599F4E73846794D6C",1)</v>
-      </c>
-    </row>
-    <row r="8" ht="23" customHeight="1" spans="1:6">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6">
-        <v>401</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>401</v>
-      </c>
-      <c r="E8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_E4234769D65744BC868595C020686574",1)</f>
-        <v>=DISPIMG("ID_E4234769D65744BC868595C020686574",1)</v>
-      </c>
-    </row>
-    <row r="9" ht="16.8" spans="1:6">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="E10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_3409CEDB9E1E4609B71E380924FF3316",1)</f>
+        <v>=DISPIMG("ID_3409CEDB9E1E4609B71E380924FF3316",1)</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" ht="20.35" spans="1:7">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
         <v>501</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
         <v>501</v>
       </c>
-      <c r="E9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_172B2CC31B11492395770D6F2C7D2C13",1)</f>
-        <v>=DISPIMG("ID_172B2CC31B11492395770D6F2C7D2C13",1)</v>
-      </c>
-    </row>
-    <row r="10" ht="16.8" spans="1:6">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="E11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_07DEC1450AFC4F3998D87D712D02686A",1)</f>
+        <v>=DISPIMG("ID_07DEC1450AFC4F3998D87D712D02686A",1)</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="23" customHeight="1" spans="1:7">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6">
         <v>100001</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>100001</v>
-      </c>
-      <c r="E10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_44F8007616934A468E84143AC6102B1E",1)</f>
-        <v>=DISPIMG("ID_44F8007616934A468E84143AC6102B1E",1)</v>
-      </c>
-    </row>
-    <row r="11" ht="16.8" spans="1:6">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6">
-        <v>100501</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>100501</v>
-      </c>
-      <c r="E11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_5052504BEF804D2A92F31853AF402A65",1)</f>
-        <v>=DISPIMG("ID_5052504BEF804D2A92F31853AF402A65",1)</v>
-      </c>
-    </row>
-    <row r="12" ht="16.8" spans="1:6">
-      <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6">
-        <v>100901</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
       </c>
       <c r="D12" s="6">
-        <v>100901</v>
-      </c>
-      <c r="E12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_DA0804D428C54A17841CD70B09B83BF4",1)</f>
-        <v>=DISPIMG("ID_DA0804D428C54A17841CD70B09B83BF4",1)</v>
-      </c>
-    </row>
-    <row r="13" ht="16.8" spans="1:6">
+        <v>100001</v>
+      </c>
+      <c r="E12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="str">
+        <f t="shared" ref="F12:F14" si="1">_xlfn.DISPIMG("ID_C8F0AFCF7F804860AFE706068B7163EB",1)</f>
+        <v>=DISPIMG("ID_C8F0AFCF7F804860AFE706068B7163EB",1)</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="23" customHeight="1" spans="1:7">
       <c r="A13" s="6">
         <v>1</v>
       </c>
       <c r="B13" s="6">
-        <v>101001</v>
+        <v>100002</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
       </c>
       <c r="D13" s="6">
-        <v>101001</v>
-      </c>
-      <c r="E13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_F0E8B596D0DB49BF91B9CD2BA30D2066",1)</f>
-        <v>=DISPIMG("ID_F0E8B596D0DB49BF91B9CD2BA30D2066",1)</v>
-      </c>
-    </row>
-    <row r="14" ht="16.8" spans="1:6">
+        <v>100002</v>
+      </c>
+      <c r="E13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>=DISPIMG("ID_C8F0AFCF7F804860AFE706068B7163EB",1)</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="23" customHeight="1" spans="1:7">
       <c r="A14" s="6">
         <v>1</v>
       </c>
       <c r="B14" s="6">
-        <v>101101</v>
+        <v>100003</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
       </c>
       <c r="D14" s="6">
-        <v>101101</v>
-      </c>
-      <c r="E14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_2891628B4ED24A70861239584F7E6D34",1)</f>
-        <v>=DISPIMG("ID_2891628B4ED24A70861239584F7E6D34",1)</v>
-      </c>
-    </row>
-    <row r="15" ht="16.8" spans="1:6">
+        <v>100003</v>
+      </c>
+      <c r="E14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>=DISPIMG("ID_C8F0AFCF7F804860AFE706068B7163EB",1)</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" ht="23" customHeight="1" spans="1:7">
       <c r="A15" s="6">
         <v>1</v>
       </c>
       <c r="B15" s="6">
-        <v>101201</v>
+        <v>100501</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
       </c>
       <c r="D15" s="6">
+        <v>100501</v>
+      </c>
+      <c r="E15" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12" t="str">
+        <f t="shared" ref="F15:F17" si="2">_xlfn.DISPIMG("ID_9F3D06959AED4D66A6D39063334AB0CA",1)</f>
+        <v>=DISPIMG("ID_9F3D06959AED4D66A6D39063334AB0CA",1)</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" ht="23" customHeight="1" spans="1:7">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>100502</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>100502</v>
+      </c>
+      <c r="E16" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>=DISPIMG("ID_9F3D06959AED4D66A6D39063334AB0CA",1)</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="1" spans="1:7">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
+        <v>100503</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>100503</v>
+      </c>
+      <c r="E17" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>=DISPIMG("ID_9F3D06959AED4D66A6D39063334AB0CA",1)</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" ht="20.4" spans="1:7">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6">
+        <v>100901</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>100901</v>
+      </c>
+      <c r="E18" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12" t="str">
+        <f t="shared" ref="F18:F20" si="3">_xlfn.DISPIMG("ID_80FC7EF21F1740B093A0240AFF3D6DEB",1)</f>
+        <v>=DISPIMG("ID_80FC7EF21F1740B093A0240AFF3D6DEB",1)</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" ht="20.4" spans="1:7">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>100902</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>100902</v>
+      </c>
+      <c r="E19" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>=DISPIMG("ID_80FC7EF21F1740B093A0240AFF3D6DEB",1)</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" ht="20.4" spans="1:7">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6">
+        <v>100903</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>100903</v>
+      </c>
+      <c r="E20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>=DISPIMG("ID_80FC7EF21F1740B093A0240AFF3D6DEB",1)</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" spans="1:7">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6">
+        <v>100201</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="13">
+        <v>100201</v>
+      </c>
+      <c r="E21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12" t="str">
+        <f t="shared" ref="F21:F23" si="4">_xlfn.DISPIMG("ID_82C739C91395468DA06FBF117861F13A",1)</f>
+        <v>=DISPIMG("ID_82C739C91395468DA06FBF117861F13A",1)</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" spans="1:7">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6">
+        <v>100202</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>100202</v>
+      </c>
+      <c r="E22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>=DISPIMG("ID_82C739C91395468DA06FBF117861F13A",1)</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" spans="1:7">
+      <c r="A23" s="6">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6">
+        <v>100203</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>100203</v>
+      </c>
+      <c r="E23" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>=DISPIMG("ID_82C739C91395468DA06FBF117861F13A",1)</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" ht="20.1" spans="1:7">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13">
+        <v>100301</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="13">
+        <v>100301</v>
+      </c>
+      <c r="E24" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12" t="str">
+        <f t="shared" ref="F24:F26" si="5">_xlfn.DISPIMG("ID_9AD385B82DA343FAAA9418C2D9F8DE69",1)</f>
+        <v>=DISPIMG("ID_9AD385B82DA343FAAA9418C2D9F8DE69",1)</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" ht="20.1" spans="1:7">
+      <c r="A25" s="6">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13">
+        <v>100302</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="13">
+        <v>100302</v>
+      </c>
+      <c r="E25" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>=DISPIMG("ID_9AD385B82DA343FAAA9418C2D9F8DE69",1)</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" ht="20.1" spans="1:7">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13">
+        <v>100303</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" s="13">
+        <v>100303</v>
+      </c>
+      <c r="E26" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>=DISPIMG("ID_9AD385B82DA343FAAA9418C2D9F8DE69",1)</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" ht="20.1" spans="1:7">
+      <c r="A27" s="6">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13">
+        <v>100101</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="13">
+        <v>100101</v>
+      </c>
+      <c r="E27" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12" t="str">
+        <f t="shared" ref="F27:F29" si="6">_xlfn.DISPIMG("ID_2B06411C3F664BF2B58BF091E079939F",1)</f>
+        <v>=DISPIMG("ID_2B06411C3F664BF2B58BF091E079939F",1)</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" ht="20.1" spans="1:7">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13">
+        <v>100102</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" s="13">
+        <v>100102</v>
+      </c>
+      <c r="E28" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>=DISPIMG("ID_2B06411C3F664BF2B58BF091E079939F",1)</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" ht="20.1" spans="1:7">
+      <c r="A29" s="6">
+        <v>1</v>
+      </c>
+      <c r="B29" s="13">
+        <v>100103</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" s="13">
+        <v>100103</v>
+      </c>
+      <c r="E29" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>=DISPIMG("ID_2B06411C3F664BF2B58BF091E079939F",1)</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" ht="20.65" spans="1:7">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6">
+        <v>101001</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>101001</v>
+      </c>
+      <c r="E30" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12" t="str">
+        <f t="shared" ref="F30:F32" si="7">_xlfn.DISPIMG("ID_BE62D6D9713E4A499F1FD96509C95087",1)</f>
+        <v>=DISPIMG("ID_BE62D6D9713E4A499F1FD96509C95087",1)</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" ht="20.65" spans="1:7">
+      <c r="A31" s="6">
+        <v>1</v>
+      </c>
+      <c r="B31" s="6">
+        <v>101002</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>101002</v>
+      </c>
+      <c r="E31" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>=DISPIMG("ID_BE62D6D9713E4A499F1FD96509C95087",1)</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" ht="20.65" spans="1:7">
+      <c r="A32" s="6">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6">
+        <v>101003</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>101003</v>
+      </c>
+      <c r="E32" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>=DISPIMG("ID_BE62D6D9713E4A499F1FD96509C95087",1)</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" ht="20.8" spans="1:7">
+      <c r="A33" s="6">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6">
+        <v>101101</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>101101</v>
+      </c>
+      <c r="E33" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12" t="str">
+        <f t="shared" ref="F33:F35" si="8">_xlfn.DISPIMG("ID_E2AAFF612EAC432190986B26A9C98BB7",1)</f>
+        <v>=DISPIMG("ID_E2AAFF612EAC432190986B26A9C98BB7",1)</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" ht="20.8" spans="1:7">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6">
+        <v>101102</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>101102</v>
+      </c>
+      <c r="E34" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>=DISPIMG("ID_E2AAFF612EAC432190986B26A9C98BB7",1)</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" ht="20.8" spans="1:7">
+      <c r="A35" s="6">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6">
+        <v>101103</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" s="6">
+        <v>101103</v>
+      </c>
+      <c r="E35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>=DISPIMG("ID_E2AAFF612EAC432190986B26A9C98BB7",1)</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" ht="20.1" spans="1:7">
+      <c r="A36" s="6">
+        <v>1</v>
+      </c>
+      <c r="B36" s="14">
+        <v>101501</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
+      <c r="D36" s="14">
+        <v>101501</v>
+      </c>
+      <c r="E36" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_0EFBED2547A44F7E8365B09D7681E597",1)</f>
+        <v>=DISPIMG("ID_0EFBED2547A44F7E8365B09D7681E597",1)</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" ht="20.1" spans="1:7">
+      <c r="A39" s="6">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6">
+        <v>100401</v>
+      </c>
+      <c r="C39" s="6">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>100401</v>
+      </c>
+      <c r="E39" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_891DB17444E4460F8ADE36249FCD7394",1)</f>
+        <v>=DISPIMG("ID_891DB17444E4460F8ADE36249FCD7394",1)</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6">
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="5:6">
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" ht="20.1" spans="1:7">
+      <c r="A42" s="6">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6">
+        <v>100601</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" s="13">
+        <v>100601</v>
+      </c>
+      <c r="E42" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_B404A0E0A57B49BB870ED498C8D11B95",1)</f>
+        <v>=DISPIMG("ID_B404A0E0A57B49BB870ED498C8D11B95",1)</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="D43" s="13"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="D44" s="13"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="D45" s="13"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="D46" s="13"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" ht="20.05" spans="1:7">
+      <c r="A47" s="6">
+        <v>1</v>
+      </c>
+      <c r="B47" s="13">
+        <v>100701</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" s="13">
+        <v>100701</v>
+      </c>
+      <c r="E47" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_BDB308A3E72F427595AC1A9A75902D33",1)</f>
+        <v>=DISPIMG("ID_BDB308A3E72F427595AC1A9A75902D33",1)</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" ht="20.05" spans="1:7">
+      <c r="A50" s="6">
+        <v>1</v>
+      </c>
+      <c r="B50" s="13">
+        <v>100801</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2</v>
+      </c>
+      <c r="D50" s="13">
+        <v>100801</v>
+      </c>
+      <c r="E50" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_9C795C3DFD604D0BBE164CAF635BE94D",1)</f>
+        <v>=DISPIMG("ID_9C795C3DFD604D0BBE164CAF635BE94D",1)</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" ht="20.45" spans="1:7">
+      <c r="A53" s="6">
+        <v>1</v>
+      </c>
+      <c r="B53" s="6">
         <v>101201</v>
       </c>
-      <c r="E15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_014164D4FD4B43B18212B117593F2ABB",1)</f>
-        <v>=DISPIMG("ID_014164D4FD4B43B18212B117593F2ABB",1)</v>
-      </c>
-    </row>
-    <row r="16" ht="16.8" spans="1:6">
-      <c r="A16" s="6">
-        <v>1</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="C53" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" s="6">
+        <v>101201</v>
+      </c>
+      <c r="E53" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_771E175306A64643A328202688B1BBAB",1)</f>
+        <v>=DISPIMG("ID_771E175306A64643A328202688B1BBAB",1)</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" ht="20.1" spans="1:7">
+      <c r="A56" s="6">
+        <v>1</v>
+      </c>
+      <c r="B56" s="14">
+        <v>101401</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2</v>
+      </c>
+      <c r="D56" s="14">
+        <v>101401</v>
+      </c>
+      <c r="E56" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_C65D6D99F84541ABA9BF3404D66C1487",1)</f>
+        <v>=DISPIMG("ID_C65D6D99F84541ABA9BF3404D66C1487",1)</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" ht="20.1" spans="1:7">
+      <c r="A59" s="6">
+        <v>1</v>
+      </c>
+      <c r="B59" s="14">
+        <v>101601</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2</v>
+      </c>
+      <c r="D59" s="14">
+        <v>101601</v>
+      </c>
+      <c r="E59" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_63712A02DDCC4249825D599FFD1FB841",1)</f>
+        <v>=DISPIMG("ID_63712A02DDCC4249825D599FFD1FB841",1)</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" ht="20.05" spans="1:7">
+      <c r="A62" s="6">
+        <v>1</v>
+      </c>
+      <c r="B62" s="14">
+        <v>101801</v>
+      </c>
+      <c r="C62" s="6">
+        <v>2</v>
+      </c>
+      <c r="D62" s="14">
+        <v>101801</v>
+      </c>
+      <c r="E62" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_44D9B418C1C54BBCA547494EABBCE28D",1)</f>
+        <v>=DISPIMG("ID_44D9B418C1C54BBCA547494EABBCE28D",1)</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" ht="20.6" spans="1:7">
+      <c r="A65" s="6">
+        <v>1</v>
+      </c>
+      <c r="B65" s="14">
+        <v>102001</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2</v>
+      </c>
+      <c r="D65" s="14">
+        <v>101801</v>
+      </c>
+      <c r="E65" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_F059E6008EE14803AE8A553D53CC0F42",1)</f>
+        <v>=DISPIMG("ID_F059E6008EE14803AE8A553D53CC0F42",1)</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" ht="98.4" spans="1:7">
+      <c r="A67" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="16">
+        <v>102101</v>
+      </c>
+      <c r="C67" s="6">
+        <v>2</v>
+      </c>
+      <c r="D67" s="16">
+        <v>102101</v>
+      </c>
+      <c r="E67" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="7" t="str">
+        <f>_xlfn.DISPIMG("ID_7FD5958D36034C6D9CEB261A1016B1BF",1)</f>
+        <v>=DISPIMG("ID_7FD5958D36034C6D9CEB261A1016B1BF",1)</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" ht="20.3" spans="1:7">
+      <c r="A68" s="6">
+        <v>1</v>
+      </c>
+      <c r="B68" s="18">
         <v>200001</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C68" s="6">
         <v>3</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D68" s="18">
         <v>200001</v>
       </c>
-      <c r="E16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_B8624452D1D348159CEBE0DBB5AA3A01",1)</f>
-        <v>=DISPIMG("ID_B8624452D1D348159CEBE0DBB5AA3A01",1)</v>
-      </c>
-    </row>
-    <row r="17" ht="16.8" spans="1:6">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="E68" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_DC2A35A3F4D34A5288D083B243CFC007",1)</f>
+        <v>=DISPIMG("ID_DC2A35A3F4D34A5288D083B243CFC007",1)</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" ht="20.05" spans="1:7">
+      <c r="A71" s="6">
+        <v>1</v>
+      </c>
+      <c r="B71" s="6">
+        <v>200301</v>
+      </c>
+      <c r="C71" s="6">
+        <v>3</v>
+      </c>
+      <c r="D71" s="13">
+        <v>200301</v>
+      </c>
+      <c r="E71" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_34FBB8D69695424CB6AE853BC927D098",1)</f>
+        <v>=DISPIMG("ID_34FBB8D69695424CB6AE853BC927D098",1)</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" ht="20.1" spans="1:7">
+      <c r="A74" s="6">
+        <v>1</v>
+      </c>
+      <c r="B74" s="19">
+        <v>200601</v>
+      </c>
+      <c r="C74" s="6">
+        <v>3</v>
+      </c>
+      <c r="D74" s="19">
+        <v>200601</v>
+      </c>
+      <c r="E74" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_6AB2AB516DE244D0878F5B322C51EDE8",1)</f>
+        <v>=DISPIMG("ID_6AB2AB516DE244D0878F5B322C51EDE8",1)</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" ht="20.05" spans="1:7">
+      <c r="A77" s="6">
+        <v>1</v>
+      </c>
+      <c r="B77" s="6">
+        <v>201101</v>
+      </c>
+      <c r="C77" s="6">
+        <v>3</v>
+      </c>
+      <c r="D77" s="6">
+        <v>201101</v>
+      </c>
+      <c r="E77" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_B520E760974E42508AF90D8EC86B3524",1)</f>
+        <v>=DISPIMG("ID_B520E760974E42508AF90D8EC86B3524",1)</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6">
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" spans="5:6">
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" ht="20.1" spans="1:7">
+      <c r="A80" s="6">
+        <v>1</v>
+      </c>
+      <c r="B80" s="19">
+        <v>201201</v>
+      </c>
+      <c r="C80" s="6">
+        <v>3</v>
+      </c>
+      <c r="D80" s="19">
+        <v>201201</v>
+      </c>
+      <c r="E80" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_D2692EF3A7DF4D34B85C8129CBBD17A1",1)</f>
+        <v>=DISPIMG("ID_D2692EF3A7DF4D34B85C8129CBBD17A1",1)</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="20"/>
+    </row>
+    <row r="83" ht="20.75" spans="1:7">
+      <c r="A83" s="6">
+        <v>1</v>
+      </c>
+      <c r="B83" s="18">
         <v>300001</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C83" s="6">
         <v>4</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D83" s="18">
         <v>300001</v>
       </c>
-      <c r="E17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_58F4354A17C645B8B2A28EE1D9CE8D35",1)</f>
-        <v>=DISPIMG("ID_58F4354A17C645B8B2A28EE1D9CE8D35",1)</v>
-      </c>
-    </row>
-    <row r="18" ht="16.8" spans="1:6">
-      <c r="A18" s="6">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="E83" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_299AF8C9EFC1444383821DEB1338C764",1)</f>
+        <v>=DISPIMG("ID_299AF8C9EFC1444383821DEB1338C764",1)</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6">
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+    </row>
+    <row r="85" spans="5:6">
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="86" ht="20.05" spans="1:7">
+      <c r="A86" s="6">
+        <v>1</v>
+      </c>
+      <c r="B86" s="13">
+        <v>300101</v>
+      </c>
+      <c r="C86" s="6">
+        <v>4</v>
+      </c>
+      <c r="D86" s="13">
+        <v>300101</v>
+      </c>
+      <c r="E86" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_83C81FEEAF8243E081906A9205D7D5F6",1)</f>
+        <v>=DISPIMG("ID_83C81FEEAF8243E081906A9205D7D5F6",1)</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" ht="20.5" spans="1:7">
+      <c r="A89" s="6">
+        <v>1</v>
+      </c>
+      <c r="B89" s="6">
         <v>300201</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C89" s="6">
         <v>4</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D89" s="6">
         <v>300201</v>
       </c>
-      <c r="E18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6" t="str">
+      <c r="E89" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_4C60F2B61952492F88D24C28FDA4086E",1)</f>
+        <v>=DISPIMG("ID_4C60F2B61952492F88D24C28FDA4086E",1)</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6">
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+    </row>
+    <row r="91" spans="5:6">
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+    </row>
+    <row r="92" ht="16.8" spans="1:7">
+      <c r="A92" s="6">
+        <v>1</v>
+      </c>
+      <c r="B92" s="6">
+        <v>400001</v>
+      </c>
+      <c r="C92" s="6">
+        <v>4</v>
+      </c>
+      <c r="D92" s="6">
+        <v>400001</v>
+      </c>
+      <c r="E92" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_9A93E3C46F41412AB0D4E893DC8D978B",1)</f>
         <v>=DISPIMG("ID_9A93E3C46F41412AB0D4E893DC8D978B",1)</v>
       </c>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="6:6">
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="6:6">
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="6:6">
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="6:6">
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="6:6">
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="6:6">
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="6:6">
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="6:6">
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="6:6">
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="6:6">
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="6:6">
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" ht="15" spans="6:6">
-      <c r="F54" s="17"/>
+      <c r="G92" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" ht="100.1" spans="1:7">
+      <c r="A93" s="6">
+        <v>1</v>
+      </c>
+      <c r="B93" s="6">
+        <v>400002</v>
+      </c>
+      <c r="C93" s="6">
+        <v>4</v>
+      </c>
+      <c r="D93" s="6">
+        <v>400002</v>
+      </c>
+      <c r="E93" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_9A93E3C46F41412AB0D4E893DC8D978B",1)</f>
+        <v>=DISPIMG("ID_9A93E3C46F41412AB0D4E893DC8D978B",1)</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F55">
+    <sortCondition ref="B2"/>
+  </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:F8">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="B8:F8" listDataValidation="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2702,34 +4348,34 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:11">
@@ -2772,34 +4418,34 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:11">
@@ -2822,7 +4468,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>10</v>
@@ -2845,13 +4491,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F5" s="5">
         <v>20</v>
@@ -2880,13 +4526,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F6" s="5">
         <v>20</v>
@@ -2915,13 +4561,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="F7" s="5">
         <v>20</v>
@@ -2950,13 +4596,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="F8" s="5">
         <v>20</v>
@@ -3003,19 +4649,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3023,16 +4669,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3040,16 +4686,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3060,13 +4706,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3074,16 +4720,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3091,16 +4737,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3112,10 +4758,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3123,16 +4769,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3140,16 +4786,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3157,16 +4803,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3174,16 +4820,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3191,16 +4837,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3208,13 +4854,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3222,10 +4868,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3233,10 +4879,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3244,10 +4890,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3255,10 +4901,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3266,10 +4912,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3277,10 +4923,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3288,10 +4934,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3299,10 +4945,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3310,10 +4956,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3321,10 +4967,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3332,10 +4978,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3343,10 +4989,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3354,16 +5000,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3371,16 +5017,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3388,16 +5034,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3405,16 +5051,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3425,10 +5071,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3436,16 +5082,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3453,16 +5099,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3470,16 +5116,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3487,16 +5133,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3504,16 +5150,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3521,14 +5167,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3536,11 +5182,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3548,16 +5194,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
